--- a/Code/Results/Cases/Case_3_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_204/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.517142421941685</v>
+        <v>1.625513630481521</v>
       </c>
       <c r="C2">
-        <v>1.497545254382317</v>
+        <v>0.6617815912354104</v>
       </c>
       <c r="D2">
-        <v>0.06910272635970216</v>
+        <v>0.1179493099002187</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.99096455578163</v>
+        <v>2.885448188488681</v>
       </c>
       <c r="G2">
-        <v>0.0007887224531398365</v>
+        <v>0.002511245253503473</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.161111544618024</v>
+        <v>1.263084568252836</v>
       </c>
       <c r="J2">
-        <v>0.4426797524454145</v>
+        <v>0.3530977822467776</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.033860410735258</v>
+        <v>1.505060230384004</v>
       </c>
       <c r="C3">
-        <v>1.289514187197994</v>
+        <v>0.6112078090272348</v>
       </c>
       <c r="D3">
-        <v>0.06109626677944391</v>
+        <v>0.1165508021603472</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.693830635125323</v>
+        <v>2.834541716054702</v>
       </c>
       <c r="G3">
-        <v>0.0007990450343648242</v>
+        <v>0.002517378919973599</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.072159708728478</v>
+        <v>1.250980048515537</v>
       </c>
       <c r="J3">
-        <v>0.3883447618430864</v>
+        <v>0.3423358023735545</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.742091870366664</v>
+        <v>1.431977383770743</v>
       </c>
       <c r="C4">
-        <v>1.164477254387293</v>
+        <v>0.5805467742078463</v>
       </c>
       <c r="D4">
-        <v>0.05623028395673657</v>
+        <v>0.1157374678381373</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.519661268153982</v>
+        <v>2.805232752602635</v>
       </c>
       <c r="G4">
-        <v>0.0008055195697611574</v>
+        <v>0.002521338183833507</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.021099700906262</v>
+        <v>1.244390930733239</v>
       </c>
       <c r="J4">
-        <v>0.3560010355135148</v>
+        <v>0.3359622724288869</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.624249660128726</v>
+        <v>1.40241442024427</v>
       </c>
       <c r="C5">
-        <v>1.114099464807794</v>
+        <v>0.5681493427827604</v>
       </c>
       <c r="D5">
-        <v>0.05425830166585399</v>
+        <v>0.1154175136749913</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.45053261578812</v>
+        <v>2.793774736636792</v>
       </c>
       <c r="G5">
-        <v>0.0008081950985049035</v>
+        <v>0.002523000371929517</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.001093385782561</v>
+        <v>1.24191590869254</v>
       </c>
       <c r="J5">
-        <v>0.3430442741738204</v>
+        <v>0.3334234734701766</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.604740540429191</v>
+        <v>1.397518693772724</v>
       </c>
       <c r="C6">
-        <v>1.105766269138485</v>
+        <v>0.5660965927917232</v>
       </c>
       <c r="D6">
-        <v>0.05393147251898256</v>
+        <v>0.1153650816904275</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.439159019034406</v>
+        <v>2.791901351087503</v>
       </c>
       <c r="G6">
-        <v>0.0008086416855689635</v>
+        <v>0.002523279326780732</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9978171808636063</v>
+        <v>1.241517566852146</v>
       </c>
       <c r="J6">
-        <v>0.3409054312961501</v>
+        <v>0.3330054255339121</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.740498575331287</v>
+        <v>1.431577802817458</v>
       </c>
       <c r="C7">
-        <v>1.163795637525652</v>
+        <v>0.5803791862261392</v>
       </c>
       <c r="D7">
-        <v>0.05620364681411161</v>
+        <v>0.1157331062068678</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.518721788698656</v>
+        <v>2.805076264989623</v>
       </c>
       <c r="G7">
-        <v>0.0008055554990392543</v>
+        <v>0.002521360403180684</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.020826761895826</v>
+        <v>1.244356703556292</v>
       </c>
       <c r="J7">
-        <v>0.3558254313326614</v>
+        <v>0.335927797182265</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.34935238715417</v>
+        <v>1.583798578820506</v>
       </c>
       <c r="C8">
-        <v>1.425191910296405</v>
+        <v>0.6442617244570101</v>
       </c>
       <c r="D8">
-        <v>0.06633067126163894</v>
+        <v>0.117457738473469</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.886647711554417</v>
+        <v>2.867488826413137</v>
       </c>
       <c r="G8">
-        <v>0.0007922551371499775</v>
+        <v>0.002513320159405392</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.129643494040423</v>
+        <v>1.258734785310423</v>
       </c>
       <c r="J8">
-        <v>0.4237130718519779</v>
+        <v>0.3493381204471859</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.592725052768685</v>
+        <v>1.889336880257417</v>
       </c>
       <c r="C9">
-        <v>1.96443892550559</v>
+        <v>0.7727057202478704</v>
       </c>
       <c r="D9">
-        <v>0.08667262862288538</v>
+        <v>0.1211964026996171</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.685763745171727</v>
+        <v>3.00553315596656</v>
       </c>
       <c r="G9">
-        <v>0.0007671125549372646</v>
+        <v>0.002499077640865894</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.376037633061742</v>
+        <v>1.293708821115061</v>
       </c>
       <c r="J9">
-        <v>0.5665932179729651</v>
+        <v>0.3775184696080771</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.552591775985434</v>
+        <v>2.118247715161601</v>
       </c>
       <c r="C10">
-        <v>2.38545500032501</v>
+        <v>0.8691071218896695</v>
       </c>
       <c r="D10">
-        <v>0.102054359152973</v>
+        <v>0.1241568587028041</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.339601846843664</v>
+        <v>3.116786938427794</v>
       </c>
       <c r="G10">
-        <v>0.0007489820818722593</v>
+        <v>0.002489531263280627</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.584923434418783</v>
+        <v>1.323664124440938</v>
       </c>
       <c r="J10">
-        <v>0.6802367339068809</v>
+        <v>0.3994053242518874</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.003750523313613</v>
+        <v>2.223381514409311</v>
       </c>
       <c r="C11">
-        <v>2.584730054231784</v>
+        <v>0.9134271459662386</v>
       </c>
       <c r="D11">
-        <v>0.109185705835344</v>
+        <v>0.1255493069411813</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.656829284182663</v>
+        <v>3.169598385337423</v>
       </c>
       <c r="G11">
-        <v>0.0007407458075973245</v>
+        <v>0.002485385108299987</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.688107850337701</v>
+        <v>1.338244526890676</v>
       </c>
       <c r="J11">
-        <v>0.7345640863292999</v>
+        <v>0.4096269157389969</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.177127326260234</v>
+        <v>2.263339252122194</v>
       </c>
       <c r="C12">
-        <v>2.661544935482482</v>
+        <v>0.9302787769729548</v>
       </c>
       <c r="D12">
-        <v>0.1119093861341298</v>
+        <v>0.1260830989806863</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.780339305920052</v>
+        <v>3.189918312235903</v>
       </c>
       <c r="G12">
-        <v>0.0007376222750723622</v>
+        <v>0.002483843136840496</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.728569010543083</v>
+        <v>1.343905096993979</v>
       </c>
       <c r="J12">
-        <v>0.7555906780219033</v>
+        <v>0.4135362974995331</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.139666908361733</v>
+        <v>2.254727120616053</v>
       </c>
       <c r="C13">
-        <v>2.644936985569302</v>
+        <v>0.9266464012306415</v>
       </c>
       <c r="D13">
-        <v>0.111321691461697</v>
+        <v>0.1259678492651659</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.753579156892073</v>
+        <v>3.185527681890164</v>
       </c>
       <c r="G13">
-        <v>0.0007382953017817541</v>
+        <v>0.002484173981562824</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.719789442007766</v>
+        <v>1.342679762354493</v>
       </c>
       <c r="J13">
-        <v>0.7510406756773023</v>
+        <v>0.4126926125618695</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.01796073328353</v>
+        <v>2.226665927350268</v>
       </c>
       <c r="C14">
-        <v>2.591021003201888</v>
+        <v>0.9148121561469225</v>
       </c>
       <c r="D14">
-        <v>0.1094092949138599</v>
+        <v>0.1255930924296678</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.66691930728328</v>
+        <v>3.171263649332872</v>
       </c>
       <c r="G14">
-        <v>0.0007404889653541691</v>
+        <v>0.002485257687580992</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.691407443600227</v>
+        <v>1.338707421382864</v>
       </c>
       <c r="J14">
-        <v>0.7362843738496991</v>
+        <v>0.4099477643445368</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.943756636560408</v>
+        <v>2.209496687775754</v>
       </c>
       <c r="C15">
-        <v>2.558180045125653</v>
+        <v>0.9075723185957827</v>
       </c>
       <c r="D15">
-        <v>0.1082410452699349</v>
+        <v>0.1253643876944466</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.61429578058997</v>
+        <v>3.162568514002658</v>
       </c>
       <c r="G15">
-        <v>0.0007418318392073542</v>
+        <v>0.002485925141513105</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.674210345175851</v>
+        <v>1.336292451875906</v>
       </c>
       <c r="J15">
-        <v>0.727307323156225</v>
+        <v>0.4082715205104677</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.523435855709693</v>
+        <v>2.111397278707727</v>
       </c>
       <c r="C16">
-        <v>2.372607365437091</v>
+        <v>0.8662202204029086</v>
       </c>
       <c r="D16">
-        <v>0.1015913263161821</v>
+        <v>0.1240667727189049</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.319312310934066</v>
+        <v>3.113380295558727</v>
       </c>
       <c r="G16">
-        <v>0.0007495200592560876</v>
+        <v>0.002489806164075562</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.57836174745475</v>
+        <v>1.322730633858015</v>
       </c>
       <c r="J16">
-        <v>0.6767454128489447</v>
+        <v>0.3987427022037906</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.269592792442722</v>
+        <v>2.051474195288392</v>
       </c>
       <c r="C17">
-        <v>2.260907104327885</v>
+        <v>0.8409726030615161</v>
       </c>
       <c r="D17">
-        <v>0.09754886199053203</v>
+        <v>0.1232823860828915</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.143771954391923</v>
+        <v>3.083772178395407</v>
       </c>
       <c r="G17">
-        <v>0.0007542353159362136</v>
+        <v>0.002492237259890859</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.52179271590623</v>
+        <v>1.314656666058696</v>
       </c>
       <c r="J17">
-        <v>0.6464507820945897</v>
+        <v>0.3929653860937634</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.124923921505285</v>
+        <v>2.017102133566368</v>
       </c>
       <c r="C18">
-        <v>2.197373219855024</v>
+        <v>0.8264946617181863</v>
       </c>
       <c r="D18">
-        <v>0.09523609691971302</v>
+        <v>0.1228355354122925</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.044631674195131</v>
+        <v>3.06694930132025</v>
       </c>
       <c r="G18">
-        <v>0.0007569489099085036</v>
+        <v>0.002493654071539357</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.490009079555705</v>
+        <v>1.310102358522727</v>
       </c>
       <c r="J18">
-        <v>0.6292684392748811</v>
+        <v>0.3896673498827283</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.076158451878143</v>
+        <v>2.005480451518622</v>
       </c>
       <c r="C19">
-        <v>2.175977624145219</v>
+        <v>0.8216001603477707</v>
       </c>
       <c r="D19">
-        <v>0.0944550479353552</v>
+        <v>0.1226849815650581</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.011363230099988</v>
+        <v>3.061288759250374</v>
       </c>
       <c r="G19">
-        <v>0.0007578681178999592</v>
+        <v>0.002494136963914589</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.479371160215791</v>
+        <v>1.308575675884015</v>
       </c>
       <c r="J19">
-        <v>0.623490320155355</v>
+        <v>0.3885549552538521</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.29647367326811</v>
+        <v>2.057843356270894</v>
       </c>
       <c r="C20">
-        <v>2.272722384420945</v>
+        <v>0.8436557089663097</v>
       </c>
       <c r="D20">
-        <v>0.09797788453566625</v>
+        <v>0.1233654400735844</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.162265964726373</v>
+        <v>3.086902562121395</v>
       </c>
       <c r="G20">
-        <v>0.0007537332552796196</v>
+        <v>0.00249197655114218</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.527735184313855</v>
+        <v>1.315506862249123</v>
       </c>
       <c r="J20">
-        <v>0.649650111388965</v>
+        <v>0.3935778077916439</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.053636091286478</v>
+        <v>2.234904206201122</v>
       </c>
       <c r="C21">
-        <v>2.606818569555287</v>
+        <v>0.9182862867697281</v>
       </c>
       <c r="D21">
-        <v>0.1099703480108758</v>
+        <v>0.1257029916995123</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.692276832012965</v>
+        <v>3.175444580771057</v>
       </c>
       <c r="G21">
-        <v>0.0007398448145766772</v>
+        <v>0.002484938615990209</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.699704371052675</v>
+        <v>1.339870396616007</v>
       </c>
       <c r="J21">
-        <v>0.7406056624011512</v>
+        <v>0.4107529383414459</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.563517439916779</v>
+        <v>2.351474770998493</v>
       </c>
       <c r="C22">
-        <v>2.833205332570287</v>
+        <v>0.9674622661668764</v>
       </c>
       <c r="D22">
-        <v>0.1179456610466474</v>
+        <v>0.127268583894363</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.058711820123335</v>
+        <v>3.235187421201772</v>
       </c>
       <c r="G22">
-        <v>0.0007307371329143116</v>
+        <v>0.002480502550635765</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.82031253985491</v>
+        <v>1.356606273469424</v>
       </c>
       <c r="J22">
-        <v>0.8027425823769505</v>
+        <v>0.4222036436159442</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.289839309328784</v>
+        <v>2.289180346573062</v>
       </c>
       <c r="C23">
-        <v>2.711552153995456</v>
+        <v>0.9411789571068994</v>
       </c>
       <c r="D23">
-        <v>0.1136750181206168</v>
+        <v>0.126429556487281</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.861100661642723</v>
+        <v>3.203128330199036</v>
       </c>
       <c r="G23">
-        <v>0.0007356032684671502</v>
+        <v>0.002482855247574529</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.755108589528135</v>
+        <v>1.347598919684017</v>
       </c>
       <c r="J23">
-        <v>0.7693037393818543</v>
+        <v>0.4160713416051891</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.284316907325319</v>
+        <v>2.054963614168855</v>
       </c>
       <c r="C24">
-        <v>2.267378582935748</v>
+        <v>0.8424425608752699</v>
       </c>
       <c r="D24">
-        <v>0.09778388852627984</v>
+        <v>0.1233278785769443</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.153899316911293</v>
+        <v>3.085486695463146</v>
       </c>
       <c r="G24">
-        <v>0.0007539602279700297</v>
+        <v>0.002492094357847829</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.525046309245681</v>
+        <v>1.315122216096881</v>
       </c>
       <c r="J24">
-        <v>0.6482029698922531</v>
+        <v>0.393300859036728</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.249537518232557</v>
+        <v>1.80591309161764</v>
       </c>
       <c r="C25">
-        <v>1.81489694540852</v>
+        <v>0.7376085110415715</v>
       </c>
       <c r="D25">
-        <v>0.08110453680312446</v>
+        <v>0.1201472094188674</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.45944064882039</v>
+        <v>2.966482947265121</v>
       </c>
       <c r="G25">
-        <v>0.0007738355826037932</v>
+        <v>0.002502768635538069</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.305117446781196</v>
+        <v>1.283508615101923</v>
       </c>
       <c r="J25">
-        <v>0.5266396494929637</v>
+        <v>0.3696898009208667</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_204/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.625513630481521</v>
+        <v>3.517142421941685</v>
       </c>
       <c r="C2">
-        <v>0.6617815912354104</v>
+        <v>1.497545254381919</v>
       </c>
       <c r="D2">
-        <v>0.1179493099002187</v>
+        <v>0.06910272635969505</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.885448188488681</v>
+        <v>2.99096455578163</v>
       </c>
       <c r="G2">
-        <v>0.002511245253503473</v>
+        <v>0.0007887224531394343</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.263084568252836</v>
+        <v>1.161111544618038</v>
       </c>
       <c r="J2">
-        <v>0.3530977822467776</v>
+        <v>0.4426797524454145</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.505060230384004</v>
+        <v>3.033860410735087</v>
       </c>
       <c r="C3">
-        <v>0.6112078090272348</v>
+        <v>1.289514187198222</v>
       </c>
       <c r="D3">
-        <v>0.1165508021603472</v>
+        <v>0.06109626677933733</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.834541716054702</v>
+        <v>2.693830635125323</v>
       </c>
       <c r="G3">
-        <v>0.002517378919973599</v>
+        <v>0.0007990450343081656</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.250980048515537</v>
+        <v>1.072159708728492</v>
       </c>
       <c r="J3">
-        <v>0.3423358023735545</v>
+        <v>0.3883447618430864</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.431977383770743</v>
+        <v>2.742091870366835</v>
       </c>
       <c r="C4">
-        <v>0.5805467742078463</v>
+        <v>1.164477254386952</v>
       </c>
       <c r="D4">
-        <v>0.1157374678381373</v>
+        <v>0.05623028395661578</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.805232752602635</v>
+        <v>2.519661268153968</v>
       </c>
       <c r="G4">
-        <v>0.002521338183833507</v>
+        <v>0.0008055195696999862</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.244390930733239</v>
+        <v>1.021099700906262</v>
       </c>
       <c r="J4">
-        <v>0.3359622724288869</v>
+        <v>0.3560010355134722</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.40241442024427</v>
+        <v>2.624249660128726</v>
       </c>
       <c r="C5">
-        <v>0.5681493427827604</v>
+        <v>1.114099464807964</v>
       </c>
       <c r="D5">
-        <v>0.1154175136749913</v>
+        <v>0.05425830166598189</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.793774736636792</v>
+        <v>2.45053261578812</v>
       </c>
       <c r="G5">
-        <v>0.002523000371929517</v>
+        <v>0.0008081950985629669</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.24191590869254</v>
+        <v>1.001093385782561</v>
       </c>
       <c r="J5">
-        <v>0.3334234734701766</v>
+        <v>0.3430442741739199</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.397518693772724</v>
+        <v>2.604740540429134</v>
       </c>
       <c r="C6">
-        <v>0.5660965927917232</v>
+        <v>1.105766269138599</v>
       </c>
       <c r="D6">
-        <v>0.1153650816904275</v>
+        <v>0.05393147251905361</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.791901351087503</v>
+        <v>2.439159019034449</v>
       </c>
       <c r="G6">
-        <v>0.002523279326780732</v>
+        <v>0.0008086416856651629</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.241517566852146</v>
+        <v>0.9978171808636205</v>
       </c>
       <c r="J6">
-        <v>0.3330054255339121</v>
+        <v>0.3409054312962638</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.431577802817458</v>
+        <v>2.740498575331628</v>
       </c>
       <c r="C7">
-        <v>0.5803791862261392</v>
+        <v>1.163795637525993</v>
       </c>
       <c r="D7">
-        <v>0.1157331062068678</v>
+        <v>0.05620364681375634</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.805076264989623</v>
+        <v>2.518721788698699</v>
       </c>
       <c r="G7">
-        <v>0.002521360403180684</v>
+        <v>0.0008055554990937174</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.244356703556292</v>
+        <v>1.020826761895826</v>
       </c>
       <c r="J7">
-        <v>0.335927797182265</v>
+        <v>0.3558254313328177</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.583798578820506</v>
+        <v>3.349352387154283</v>
       </c>
       <c r="C8">
-        <v>0.6442617244570101</v>
+        <v>1.425191910296405</v>
       </c>
       <c r="D8">
-        <v>0.117457738473469</v>
+        <v>0.06633067126153946</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.867488826413137</v>
+        <v>2.886647711554417</v>
       </c>
       <c r="G8">
-        <v>0.002513320159405392</v>
+        <v>0.0007922551370953412</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.258734785310423</v>
+        <v>1.129643494040408</v>
       </c>
       <c r="J8">
-        <v>0.3493381204471859</v>
+        <v>0.4237130718519353</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.889336880257417</v>
+        <v>4.592725052768742</v>
       </c>
       <c r="C9">
-        <v>0.7727057202478704</v>
+        <v>1.964438925505874</v>
       </c>
       <c r="D9">
-        <v>0.1211964026996171</v>
+        <v>0.08667262862279301</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.00553315596656</v>
+        <v>3.685763745171755</v>
       </c>
       <c r="G9">
-        <v>0.002499077640865894</v>
+        <v>0.0007671125548752511</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.293708821115061</v>
+        <v>1.376037633061728</v>
       </c>
       <c r="J9">
-        <v>0.3775184696080771</v>
+        <v>0.5665932179729936</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.118247715161601</v>
+        <v>5.552591775985661</v>
       </c>
       <c r="C10">
-        <v>0.8691071218896695</v>
+        <v>2.385455000325067</v>
       </c>
       <c r="D10">
-        <v>0.1241568587028041</v>
+        <v>0.1020543591526035</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.116786938427794</v>
+        <v>4.339601846843692</v>
       </c>
       <c r="G10">
-        <v>0.002489531263280627</v>
+        <v>0.0007489820818704935</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.323664124440938</v>
+        <v>1.584923434418783</v>
       </c>
       <c r="J10">
-        <v>0.3994053242518874</v>
+        <v>0.6802367339069662</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.223381514409311</v>
+        <v>6.003750523313442</v>
       </c>
       <c r="C11">
-        <v>0.9134271459662386</v>
+        <v>2.584730054231215</v>
       </c>
       <c r="D11">
-        <v>0.1255493069411813</v>
+        <v>0.1091857058357988</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.169598385337423</v>
+        <v>4.656829284182663</v>
       </c>
       <c r="G11">
-        <v>0.002485385108299987</v>
+        <v>0.0007407458075959621</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.338244526890676</v>
+        <v>1.688107850337701</v>
       </c>
       <c r="J11">
-        <v>0.4096269157389969</v>
+        <v>0.734564086329172</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.263339252122194</v>
+        <v>6.17712732626029</v>
       </c>
       <c r="C12">
-        <v>0.9302787769729548</v>
+        <v>2.661544935482254</v>
       </c>
       <c r="D12">
-        <v>0.1260830989806863</v>
+        <v>0.1119093861339451</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.189918312235903</v>
+        <v>4.780339305920052</v>
       </c>
       <c r="G12">
-        <v>0.002483843136840496</v>
+        <v>0.0007376222751426278</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.343905096993979</v>
+        <v>1.728569010543083</v>
       </c>
       <c r="J12">
-        <v>0.4135362974995331</v>
+        <v>0.7555906780219175</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.254727120616053</v>
+        <v>6.139666908361903</v>
       </c>
       <c r="C13">
-        <v>0.9266464012306415</v>
+        <v>2.644936985569302</v>
       </c>
       <c r="D13">
-        <v>0.1259678492651659</v>
+        <v>0.111321691461896</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.185527681890164</v>
+        <v>4.753579156892101</v>
       </c>
       <c r="G13">
-        <v>0.002484173981562824</v>
+        <v>0.0007382953017246294</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.342679762354493</v>
+        <v>1.719789442007752</v>
       </c>
       <c r="J13">
-        <v>0.4126926125618695</v>
+        <v>0.751040675677288</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.226665927350268</v>
+        <v>6.01796073328336</v>
       </c>
       <c r="C14">
-        <v>0.9148121561469225</v>
+        <v>2.591021003201604</v>
       </c>
       <c r="D14">
-        <v>0.1255930924296678</v>
+        <v>0.1094092949139593</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.171263649332872</v>
+        <v>4.666919307283251</v>
       </c>
       <c r="G14">
-        <v>0.002485257687580992</v>
+        <v>0.0007404889653559454</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.338707421382864</v>
+        <v>1.691407443600227</v>
       </c>
       <c r="J14">
-        <v>0.4099477643445368</v>
+        <v>0.7362843738497418</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.209496687775754</v>
+        <v>5.943756636560238</v>
       </c>
       <c r="C15">
-        <v>0.9075723185957827</v>
+        <v>2.558180045125823</v>
       </c>
       <c r="D15">
-        <v>0.1253643876944466</v>
+        <v>0.1082410452699349</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.162568514002658</v>
+        <v>4.61429578058997</v>
       </c>
       <c r="G15">
-        <v>0.002485925141513105</v>
+        <v>0.0007418318392058412</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.336292451875906</v>
+        <v>1.674210345175865</v>
       </c>
       <c r="J15">
-        <v>0.4082715205104677</v>
+        <v>0.7273073231562677</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.111397278707727</v>
+        <v>5.523435855709579</v>
       </c>
       <c r="C16">
-        <v>0.8662202204029086</v>
+        <v>2.372607365437148</v>
       </c>
       <c r="D16">
-        <v>0.1240667727189049</v>
+        <v>0.1015913263160968</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.113380295558727</v>
+        <v>4.319312310934066</v>
       </c>
       <c r="G16">
-        <v>0.002489806164075562</v>
+        <v>0.0007495200592135196</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.322730633858015</v>
+        <v>1.57836174745475</v>
       </c>
       <c r="J16">
-        <v>0.3987427022037906</v>
+        <v>0.6767454128490584</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.051474195288392</v>
+        <v>5.269592792442438</v>
       </c>
       <c r="C17">
-        <v>0.8409726030615161</v>
+        <v>2.260907104328112</v>
       </c>
       <c r="D17">
-        <v>0.1232823860828915</v>
+        <v>0.09754886199067414</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.083772178395407</v>
+        <v>4.143771954391894</v>
       </c>
       <c r="G17">
-        <v>0.002492237259890859</v>
+        <v>0.0007542353159885811</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.314656666058696</v>
+        <v>1.52179271590623</v>
       </c>
       <c r="J17">
-        <v>0.3929653860937634</v>
+        <v>0.6464507820945897</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.017102133566368</v>
+        <v>5.124923921505228</v>
       </c>
       <c r="C18">
-        <v>0.8264946617181863</v>
+        <v>2.197373219854796</v>
       </c>
       <c r="D18">
-        <v>0.1228355354122925</v>
+        <v>0.09523609691952828</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.06694930132025</v>
+        <v>4.044631674195131</v>
       </c>
       <c r="G18">
-        <v>0.002493654071539357</v>
+        <v>0.000756948909775872</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.310102358522727</v>
+        <v>1.490009079555691</v>
       </c>
       <c r="J18">
-        <v>0.3896673498827283</v>
+        <v>0.6292684392748384</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.005480451518622</v>
+        <v>5.0761584518782</v>
       </c>
       <c r="C19">
-        <v>0.8216001603477707</v>
+        <v>2.175977624144764</v>
       </c>
       <c r="D19">
-        <v>0.1226849815650581</v>
+        <v>0.09445504793536941</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.061288759250374</v>
+        <v>4.011363230099988</v>
       </c>
       <c r="G19">
-        <v>0.002494136963914589</v>
+        <v>0.000757868118021447</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.308575675884015</v>
+        <v>1.479371160215791</v>
       </c>
       <c r="J19">
-        <v>0.3885549552538521</v>
+        <v>0.6234903201554545</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.057843356270894</v>
+        <v>5.296473673268281</v>
       </c>
       <c r="C20">
-        <v>0.8436557089663097</v>
+        <v>2.2727223844214</v>
       </c>
       <c r="D20">
-        <v>0.1233654400735844</v>
+        <v>0.09797788453602152</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.086902562121395</v>
+        <v>4.162265964726402</v>
       </c>
       <c r="G20">
-        <v>0.00249197655114218</v>
+        <v>0.0007537332552763717</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.315506862249123</v>
+        <v>1.52773518431384</v>
       </c>
       <c r="J20">
-        <v>0.3935778077916439</v>
+        <v>0.6496501113888087</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.234904206201122</v>
+        <v>6.053636091286819</v>
       </c>
       <c r="C21">
-        <v>0.9182862867697281</v>
+        <v>2.606818569555287</v>
       </c>
       <c r="D21">
-        <v>0.1257029916995123</v>
+        <v>0.1099703480104495</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.175444580771057</v>
+        <v>4.69227683201305</v>
       </c>
       <c r="G21">
-        <v>0.002484938615990209</v>
+        <v>0.0007398448146568076</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.339870396616007</v>
+        <v>1.699704371052704</v>
       </c>
       <c r="J21">
-        <v>0.4107529383414459</v>
+        <v>0.7406056624011939</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.351474770998493</v>
+        <v>6.563517439916723</v>
       </c>
       <c r="C22">
-        <v>0.9674622661668764</v>
+        <v>2.83320533257023</v>
       </c>
       <c r="D22">
-        <v>0.127268583894363</v>
+        <v>0.1179456610464626</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.235187421201772</v>
+        <v>5.05871182012342</v>
       </c>
       <c r="G22">
-        <v>0.002480502550635765</v>
+        <v>0.000730737132911164</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.356606273469424</v>
+        <v>1.820312539854925</v>
       </c>
       <c r="J22">
-        <v>0.4222036436159442</v>
+        <v>0.8027425823768226</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.289180346573062</v>
+        <v>6.289839309329068</v>
       </c>
       <c r="C23">
-        <v>0.9411789571068994</v>
+        <v>2.711552153995626</v>
       </c>
       <c r="D23">
-        <v>0.126429556487281</v>
+        <v>0.1136750181203894</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.203128330199036</v>
+        <v>4.861100661642723</v>
       </c>
       <c r="G23">
-        <v>0.002482855247574529</v>
+        <v>0.0007356032686502271</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.347598919684017</v>
+        <v>1.75510858952812</v>
       </c>
       <c r="J23">
-        <v>0.4160713416051891</v>
+        <v>0.7693037393817548</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.054963614168855</v>
+        <v>5.284316907325149</v>
       </c>
       <c r="C24">
-        <v>0.8424425608752699</v>
+        <v>2.267378582935976</v>
       </c>
       <c r="D24">
-        <v>0.1233278785769443</v>
+        <v>0.09778388852627984</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.085486695463146</v>
+        <v>4.153899316911264</v>
       </c>
       <c r="G24">
-        <v>0.002492094357847829</v>
+        <v>0.0007539602279690622</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.315122216096881</v>
+        <v>1.525046309245695</v>
       </c>
       <c r="J24">
-        <v>0.393300859036728</v>
+        <v>0.6482029698923526</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.80591309161764</v>
+        <v>4.249537518232387</v>
       </c>
       <c r="C25">
-        <v>0.7376085110415715</v>
+        <v>1.81489694540852</v>
       </c>
       <c r="D25">
-        <v>0.1201472094188674</v>
+        <v>0.08110453680296104</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.966482947265121</v>
+        <v>3.45944064882039</v>
       </c>
       <c r="G25">
-        <v>0.002502768635538069</v>
+        <v>0.0007738355825365661</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.283508615101923</v>
+        <v>1.30511744678121</v>
       </c>
       <c r="J25">
-        <v>0.3696898009208667</v>
+        <v>0.5266396494929069</v>
       </c>
       <c r="K25">
         <v>0</v>
